--- a/Hardware/Components/Komponent liste (undersøk).xlsx
+++ b/Hardware/Components/Komponent liste (undersøk).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb18673bf6d29142/Documents/GitHub/Bachelor-Nordic_Semi/Hardware/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Hardware\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17077E1-6078-46FA-9148-D943E3CD5C77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{D17077E1-6078-46FA-9148-D943E3CD5C77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{65D27E60-C8F4-4D0A-BC00-89FDC2ED87C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12070" xr2:uid="{5227BD81-32B6-4D64-B7A0-DAB85C651655}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Digekey</t>
   </si>
@@ -127,13 +127,82 @@
   </si>
   <si>
     <t>10-TFSOP, 10-MSOP (0.118", 3.00mm Width) Exposed Pad</t>
+  </si>
+  <si>
+    <t>MB39C811</t>
+  </si>
+  <si>
+    <t>LTC3331</t>
+  </si>
+  <si>
+    <t>PIMC - Battery Chargers</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ADP5090</t>
+  </si>
+  <si>
+    <t>ADP5090ACPZ-2-R7TR-ND</t>
+  </si>
+  <si>
+    <t>ADP5090ACPZ-2-R7CT-ND</t>
+  </si>
+  <si>
+    <t>ADP5090ACPZ-2-R7DKR-ND</t>
+  </si>
+  <si>
+    <t>LTC3105EMS#PBF-ND</t>
+  </si>
+  <si>
+    <t>LTC3105EDD#PBF-ND</t>
+  </si>
+  <si>
+    <t>PMIC - Voltage Regulators - Special Purpose</t>
+  </si>
+  <si>
+    <t>LTC3105</t>
+  </si>
+  <si>
+    <t>PMIC - Voltage Regulator - Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>DigiKey part nuber</t>
+  </si>
+  <si>
+    <t>MP20043</t>
+  </si>
+  <si>
+    <t>MP20043DGT-B-LF-Z-ND</t>
+  </si>
+  <si>
+    <t>RT9032</t>
+  </si>
+  <si>
+    <t>RT9032BGQW-ND</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>AFIG-0007</t>
+  </si>
+  <si>
+    <t>CH721-ND</t>
+  </si>
+  <si>
+    <t>Elektro mekanical button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +231,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +267,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,12 +306,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,10 +340,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Beregning" xfId="4" builtinId="22"/>
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Inndata" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nøytral" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,54 +665,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A96F3-1769-48A9-9B7B-5D05980CCDE2}">
-  <dimension ref="D3:H26"/>
+  <dimension ref="D3:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="30.36328125" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="43.1796875" customWidth="1"/>
+    <col min="17" max="17" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
+    <row r="3" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="7" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+      <c r="L7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="P7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -594,8 +793,20 @@
       <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -611,8 +822,20 @@
       <c r="H10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>30</v>
       </c>
@@ -628,8 +851,14 @@
       <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>30</v>
       </c>
@@ -646,7 +875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>30</v>
       </c>
@@ -663,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -680,7 +909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>30</v>
       </c>
@@ -697,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -714,7 +943,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
@@ -725,7 +957,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
@@ -735,8 +970,17 @@
       <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="L18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
@@ -746,8 +990,23 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="K19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
@@ -757,8 +1016,26 @@
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
@@ -768,8 +1045,17 @@
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
@@ -780,7 +1066,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
@@ -791,7 +1080,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
@@ -802,7 +1094,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
@@ -813,7 +1108,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
@@ -844,8 +1142,16 @@
     <hyperlink ref="E24" r:id="rId16" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-TRPBF/LTC3331EUH-TRPBF-ND/4895643" xr:uid="{245AFAB1-869A-4E4F-B4DB-7E59FC2AFAEF}"/>
     <hyperlink ref="E25" r:id="rId17" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331IUH-PBF/LTC3331IUH-PBF-ND/4895695" xr:uid="{244F5A91-7369-4B5B-87E4-1B38B09E1C69}"/>
     <hyperlink ref="E26" r:id="rId18" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-PBF/LTC3331EUH-PBF-ND/4895694" xr:uid="{4A77CEDD-5698-4624-8BCD-1DDED8CC8EEE}"/>
+    <hyperlink ref="L9" r:id="rId19" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7TR-ND/6057010" xr:uid="{E72DEBDA-9FB8-408F-B3E2-1512D32ADD15}"/>
+    <hyperlink ref="L10" r:id="rId20" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7CT-ND/7422296" xr:uid="{6C6ADED4-F5E4-4433-B4CE-7843574F9850}"/>
+    <hyperlink ref="L11" r:id="rId21" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7DKR-ND/7422299" xr:uid="{51C1FCD6-23C9-405C-935A-4025753D3158}"/>
+    <hyperlink ref="P9" r:id="rId22" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EMS-PBF/LTC3105EMS-PBF-ND/2601181" xr:uid="{DFAF87EF-D96B-401D-A5BD-B6F49445985A}"/>
+    <hyperlink ref="P10" r:id="rId23" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EDD-PBF/LTC3105EDD-PBF-ND/2601179" xr:uid="{0BCEE393-932A-42D8-B251-C03DDF9F8299}"/>
+    <hyperlink ref="L20" r:id="rId24" display="https://www.digikey.no/product-detail/en/monolithic-power-systems-inc/MP20043DGT-B-LF-Z/MP20043DGT-B-LF-Z-ND/5291816" xr:uid="{B0672E31-D658-4DAC-83C5-C89490A72088}"/>
+    <hyperlink ref="L21" r:id="rId25" display="https://www.digikey.no/product-detail/en/richtek-usa-inc/RT9032BGQW/RT9032BGQW-ND/2546498" xr:uid="{7EC1A442-428D-4547-A1BD-6C4A2A672681}"/>
+    <hyperlink ref="P20" r:id="rId26" display="https://www.digikey.no/product-detail/en/zf-electronics/AFIG-0007/CH721-ND/5250515" xr:uid="{4A4DD750-2D4C-4491-9BA8-304ADE9FD235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Hardware/Components/Komponent liste (undersøk).xlsx
+++ b/Hardware/Components/Komponent liste (undersøk).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Hardware\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pzymo\Documents\GitHub\Bachelor-Nordic_Semi\Hardware\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{D17077E1-6078-46FA-9148-D943E3CD5C77}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{65D27E60-C8F4-4D0A-BC00-89FDC2ED87C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12070" xr2:uid="{5227BD81-32B6-4D64-B7A0-DAB85C651655}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14796" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>Digekey</t>
   </si>
@@ -196,12 +195,24 @@
   </si>
   <si>
     <t>Elektro mekanical button</t>
+  </si>
+  <si>
+    <t>DB3X209</t>
+  </si>
+  <si>
+    <t>DB3X209K0LCT-ND</t>
+  </si>
+  <si>
+    <t>DigiKey Part Number</t>
+  </si>
+  <si>
+    <t>Schottky Diodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,27 +675,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A96F3-1769-48A9-9B7B-5D05980CCDE2}">
-  <dimension ref="D3:Y26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="43.1796875" customWidth="1"/>
-    <col min="17" max="17" width="24.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="43.21875" customWidth="1"/>
+    <col min="17" max="17" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
@@ -710,7 +721,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
@@ -736,7 +747,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="7" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:25" x14ac:dyDescent="0.3">
       <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
@@ -748,7 +759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -777,7 +788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -806,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -835,7 +846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>30</v>
       </c>
@@ -858,7 +869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>30</v>
       </c>
@@ -875,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>30</v>
       </c>
@@ -892,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -909,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>30</v>
       </c>
@@ -926,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="4:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -943,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>34</v>
       </c>
@@ -957,7 +968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>34</v>
       </c>
@@ -977,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>34</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>34</v>
       </c>
@@ -1066,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>35</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>35</v>
       </c>
@@ -1107,8 +1118,11 @@
       <c r="G25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="L25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>35</v>
       </c>
@@ -1121,35 +1135,49 @@
       <c r="G26" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IMSE-1-TRPBF/LTC3588IMSE-1-TRPBF-ND/2216348" xr:uid="{310A4EE1-53BF-4F49-92C6-B60632786A03}"/>
-    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IDD-1-TRPBF/LTC3588IDD-1-TRPBF-ND/2216347" xr:uid="{C5DC1D95-5057-4662-A84A-A6FE287CC01E}"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IDD-1-PBF/LTC3588IDD-1-PBF-ND/2216346" xr:uid="{4DF82046-6024-4A07-ACEE-A226E9EF32AA}"/>
-    <hyperlink ref="E12" r:id="rId4" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EMSE-1-TRPBF/LTC3588EMSE-1-TRPBF-ND/2216345" xr:uid="{213C70FB-B8A2-48AC-BCEA-D6051C0BFEA5}"/>
-    <hyperlink ref="E13" r:id="rId5" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EDD-1-TRPBF/LTC3588EDD-1-TRPBF-ND/2216344" xr:uid="{AB74485A-13F3-4BEF-A0A3-461E44311577}"/>
-    <hyperlink ref="E14" r:id="rId6" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IMSE-1-PBF/LTC3588IMSE-1-PBF-ND/2213930" xr:uid="{EB2E04BC-92F8-4065-95A9-16035BDFA5FB}"/>
-    <hyperlink ref="E15" r:id="rId7" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EDD-1-PBF/LTC3588EDD-1-PBF-ND/2213927" xr:uid="{DCB45F96-2214-4C34-9261-52B2618F8EA0}"/>
-    <hyperlink ref="E16" r:id="rId8" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EMSE-1-PBF/LTC3588EMSE-1-PBF-ND/2213929" xr:uid="{A64D327F-8376-4F66-9DC6-24C63767E5EC}"/>
-    <hyperlink ref="E17" r:id="rId9" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-6-ND/4969432" xr:uid="{E41BBF4E-7A9C-4C27-80B9-573CA6B6B7D5}"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-1-ND/4969430" xr:uid="{AE97CB3B-E44C-4A40-8134-A1990E5494F2}"/>
-    <hyperlink ref="E19" r:id="rId11" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-2-ND/4969428" xr:uid="{D3523068-2D89-402A-AC68-6C8E10F16FAB}"/>
-    <hyperlink ref="E20" r:id="rId12" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-6-ND/4931416" xr:uid="{FE20652B-E852-4056-BCAA-25AD86776B10}"/>
-    <hyperlink ref="E21" r:id="rId13" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-1-ND/4931415" xr:uid="{476EEC51-8632-4784-AB75-B2A8681B0553}"/>
-    <hyperlink ref="E22" r:id="rId14" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-2-ND/4931414" xr:uid="{87D6E5B6-3B3D-4336-8790-7238190AC1F4}"/>
-    <hyperlink ref="E23" r:id="rId15" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331IUH-TRPBF/LTC3331IUH-TRPBF-ND/4895644" xr:uid="{8FC67FCB-EDEA-4209-89B7-184357885621}"/>
-    <hyperlink ref="E24" r:id="rId16" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-TRPBF/LTC3331EUH-TRPBF-ND/4895643" xr:uid="{245AFAB1-869A-4E4F-B4DB-7E59FC2AFAEF}"/>
-    <hyperlink ref="E25" r:id="rId17" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331IUH-PBF/LTC3331IUH-PBF-ND/4895695" xr:uid="{244F5A91-7369-4B5B-87E4-1B38B09E1C69}"/>
-    <hyperlink ref="E26" r:id="rId18" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-PBF/LTC3331EUH-PBF-ND/4895694" xr:uid="{4A77CEDD-5698-4624-8BCD-1DDED8CC8EEE}"/>
-    <hyperlink ref="L9" r:id="rId19" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7TR-ND/6057010" xr:uid="{E72DEBDA-9FB8-408F-B3E2-1512D32ADD15}"/>
-    <hyperlink ref="L10" r:id="rId20" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7CT-ND/7422296" xr:uid="{6C6ADED4-F5E4-4433-B4CE-7843574F9850}"/>
-    <hyperlink ref="L11" r:id="rId21" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7DKR-ND/7422299" xr:uid="{51C1FCD6-23C9-405C-935A-4025753D3158}"/>
-    <hyperlink ref="P9" r:id="rId22" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EMS-PBF/LTC3105EMS-PBF-ND/2601181" xr:uid="{DFAF87EF-D96B-401D-A5BD-B6F49445985A}"/>
-    <hyperlink ref="P10" r:id="rId23" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EDD-PBF/LTC3105EDD-PBF-ND/2601179" xr:uid="{0BCEE393-932A-42D8-B251-C03DDF9F8299}"/>
-    <hyperlink ref="L20" r:id="rId24" display="https://www.digikey.no/product-detail/en/monolithic-power-systems-inc/MP20043DGT-B-LF-Z/MP20043DGT-B-LF-Z-ND/5291816" xr:uid="{B0672E31-D658-4DAC-83C5-C89490A72088}"/>
-    <hyperlink ref="L21" r:id="rId25" display="https://www.digikey.no/product-detail/en/richtek-usa-inc/RT9032BGQW/RT9032BGQW-ND/2546498" xr:uid="{7EC1A442-428D-4547-A1BD-6C4A2A672681}"/>
-    <hyperlink ref="P20" r:id="rId26" display="https://www.digikey.no/product-detail/en/zf-electronics/AFIG-0007/CH721-ND/5250515" xr:uid="{4A4DD750-2D4C-4491-9BA8-304ADE9FD235}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IMSE-1-TRPBF/LTC3588IMSE-1-TRPBF-ND/2216348"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IDD-1-TRPBF/LTC3588IDD-1-TRPBF-ND/2216347"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IDD-1-PBF/LTC3588IDD-1-PBF-ND/2216346"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EMSE-1-TRPBF/LTC3588EMSE-1-TRPBF-ND/2216345"/>
+    <hyperlink ref="E13" r:id="rId5" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EDD-1-TRPBF/LTC3588EDD-1-TRPBF-ND/2216344"/>
+    <hyperlink ref="E14" r:id="rId6" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588IMSE-1-PBF/LTC3588IMSE-1-PBF-ND/2213930"/>
+    <hyperlink ref="E15" r:id="rId7" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EDD-1-PBF/LTC3588EDD-1-PBF-ND/2213927"/>
+    <hyperlink ref="E16" r:id="rId8" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3588EMSE-1-PBF/LTC3588EMSE-1-PBF-ND/2213929"/>
+    <hyperlink ref="E17" r:id="rId9" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-6-ND/4969432"/>
+    <hyperlink ref="E18" r:id="rId10" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-1-ND/4969430"/>
+    <hyperlink ref="E19" r:id="rId11" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-EFE2/1534-1029-2-ND/4969428"/>
+    <hyperlink ref="E20" r:id="rId12" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-6-ND/4931416"/>
+    <hyperlink ref="E21" r:id="rId13" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-1-ND/4931415"/>
+    <hyperlink ref="E22" r:id="rId14" display="https://www.digikey.no/product-detail/en/cypress-semiconductor-corp/MB39C811QN-G-ERE2/1534-1011-2-ND/4931414"/>
+    <hyperlink ref="E23" r:id="rId15" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331IUH-TRPBF/LTC3331IUH-TRPBF-ND/4895644"/>
+    <hyperlink ref="E24" r:id="rId16" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-TRPBF/LTC3331EUH-TRPBF-ND/4895643"/>
+    <hyperlink ref="E25" r:id="rId17" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331IUH-PBF/LTC3331IUH-PBF-ND/4895695"/>
+    <hyperlink ref="E26" r:id="rId18" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3331EUH-PBF/LTC3331EUH-PBF-ND/4895694"/>
+    <hyperlink ref="L9" r:id="rId19" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7TR-ND/6057010"/>
+    <hyperlink ref="L10" r:id="rId20" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7CT-ND/7422296"/>
+    <hyperlink ref="L11" r:id="rId21" display="https://www.digikey.no/product-detail/en/analog-devices-inc/ADP5090ACPZ-2-R7/ADP5090ACPZ-2-R7DKR-ND/7422299"/>
+    <hyperlink ref="P9" r:id="rId22" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EMS-PBF/LTC3105EMS-PBF-ND/2601181"/>
+    <hyperlink ref="P10" r:id="rId23" display="https://www.digikey.no/product-detail/en/linear-technology-analog-devices/LTC3105EDD-PBF/LTC3105EDD-PBF-ND/2601179"/>
+    <hyperlink ref="L20" r:id="rId24" display="https://www.digikey.no/product-detail/en/monolithic-power-systems-inc/MP20043DGT-B-LF-Z/MP20043DGT-B-LF-Z-ND/5291816"/>
+    <hyperlink ref="L21" r:id="rId25" display="https://www.digikey.no/product-detail/en/richtek-usa-inc/RT9032BGQW/RT9032BGQW-ND/2546498"/>
+    <hyperlink ref="P20" r:id="rId26" display="https://www.digikey.no/product-detail/en/zf-electronics/AFIG-0007/CH721-ND/5250515"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
